--- a/biology/Médecine/Laurent_Karila/Laurent_Karila.xlsx
+++ b/biology/Médecine/Laurent_Karila/Laurent_Karila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent Karila est un psychiatre français, médecin à l'hôpital Paul-Brousse (AP-HP), spécialisé dans l'addictologie. Il est professeur d’addictologie et de psychiatrie à l’Université Paris-Saclay.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Karila naît le 6 février 1973 à Paris. De 1991 à 1999, il étudie à la faculté de médecine Saint-Antoine à Paris, puis fait son internat au CHR de Lille de 1999 à 2004. En 2004, il intègre le service de psychiatrie et addictologie à l'hôpital Paul-Brousse (AP-HP) à Villejuif. Il est nommé PU-PH dans ce département. Il fait partie de l'Unité de Recherche PSYCOMADD à l'université Paris Saclay[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Karila naît le 6 février 1973 à Paris. De 1991 à 1999, il étudie à la faculté de médecine Saint-Antoine à Paris, puis fait son internat au CHR de Lille de 1999 à 2004. En 2004, il intègre le service de psychiatrie et addictologie à l'hôpital Paul-Brousse (AP-HP) à Villejuif. Il est nommé PU-PH dans ce département. Il fait partie de l'Unité de Recherche PSYCOMADD à l'université Paris Saclay.
 </t>
         </is>
       </c>
@@ -544,16 +558,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activités médicales et universitaires
-Laurent Karila obtient son diplôme d'études spécialisées en Psychiatrie (Faculté de Médecine Henri Warembourg, Université Lille-II) en 2004. L'année suivante, il obtient son diplôme d’études spécialisées complémentaires d’Addictologie avec un travail de mémoire sur l’exposition prénatale au cannabis (Université Paris-Sud). En 2012, il est docteur en sciences avec sa thèse d’université intitulée Le modèle CAIMAN : clinique, neuropsychologie, imagerie et traitements pharmacologiques de la dépendance à la cocaïne (École Doctorale 3C, Université Pierre-et-Marie-Curie, Paris-VI)[2],[3].
-ll obtient une habilitation universitaire sur la thématique des addictions à l'université Paris-Sud en novembre 2017. Il consulte à l'hôpital Paul-Brousse. Il a monté un programme spécifique depuis 2008 concernant l'addiction sexuelle / trouble hypersexualité[4], et s'occupe des problèmes liés aux écrans et à Internet (smartphones, réseaux sociaux, jeux en ligne, jeux vidéo...).
-Il souligne par ailleurs que l'épidémie de Covid-19 « a fait augmenter de 25% les troubles psychiatriques »[5].
-Activités institutionnelles
-Laurent Karila est porte-parole et président du comité scientifique de l'association SOS Addictions et vice-président de la Collégiale d’addictologie (AP-HP) et du Collège universitaire national des enseignants d’addictologie).
-Il co-organise avec William Lowenstein le congrès virtuel E-ADD sur les addictions, avec le soutien ce la MILDECA.
-Activités musicales
-Laurent Karila est rédacteur/ blogueur du site Hard Force Magazine depuis 2013[6]. Il interviewe des artistes dans le domaine du Metal, fait des chroniques d'albums et des chroniques de concerts. Il décrit lui-même le Metal comme une "addiction positive", c'est-à-dire qui ne génère aucune souffrance.
-Avec Renaud Hantson, il a écrit les paroles des albums AddictionS — devenu un projet de prévention validé par la Mission interministérielle de lutte contre les drogues et les conduites addictives (MILDECA)[7] —, Psychiatric et Sex Opera pour le groupe Satan Jokers[8].
+          <t>Activités médicales et universitaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Karila obtient son diplôme d'études spécialisées en Psychiatrie (Faculté de Médecine Henri Warembourg, Université Lille-II) en 2004. L'année suivante, il obtient son diplôme d’études spécialisées complémentaires d’Addictologie avec un travail de mémoire sur l’exposition prénatale au cannabis (Université Paris-Sud). En 2012, il est docteur en sciences avec sa thèse d’université intitulée Le modèle CAIMAN : clinique, neuropsychologie, imagerie et traitements pharmacologiques de la dépendance à la cocaïne (École Doctorale 3C, Université Pierre-et-Marie-Curie, Paris-VI),.
+ll obtient une habilitation universitaire sur la thématique des addictions à l'université Paris-Sud en novembre 2017. Il consulte à l'hôpital Paul-Brousse. Il a monté un programme spécifique depuis 2008 concernant l'addiction sexuelle / trouble hypersexualité, et s'occupe des problèmes liés aux écrans et à Internet (smartphones, réseaux sociaux, jeux en ligne, jeux vidéo...).
+Il souligne par ailleurs que l'épidémie de Covid-19 « a fait augmenter de 25% les troubles psychiatriques ».
 </t>
         </is>
       </c>
@@ -579,10 +592,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activités institutionnelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Karila est porte-parole et président du comité scientifique de l'association SOS Addictions et vice-président de la Collégiale d’addictologie (AP-HP) et du Collège universitaire national des enseignants d’addictologie).
+Il co-organise avec William Lowenstein le congrès virtuel E-ADD sur les addictions, avec le soutien ce la MILDECA.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laurent_Karila</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Karila</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités musicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Karila est rédacteur/ blogueur du site Hard Force Magazine depuis 2013. Il interviewe des artistes dans le domaine du Metal, fait des chroniques d'albums et des chroniques de concerts. Il décrit lui-même le Metal comme une "addiction positive", c'est-à-dire qui ne génère aucune souffrance.
+Avec Renaud Hantson, il a écrit les paroles des albums AddictionS — devenu un projet de prévention validé par la Mission interministérielle de lutte contre les drogues et les conduites addictives (MILDECA) —, Psychiatric et Sex Opera pour le groupe Satan Jokers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laurent_Karila</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurent_Karila</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Psychiatrie, pédopsychiatrie, addictologie (ECN/iECN) Editions MedLine, 2013,  (ISBN 978-2818308578)
 Accro. Jeux, réseaux sociaux, bouffe, sexe, travail, les clés pour se sortir des nouvelles addictions, Éditions Marabout, 2015,  (ISBN 978-2501090568)
